--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_end.xlsx
@@ -2348,7 +2348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="외드레르"]  그래, 난 아직 살아있긴 하지만…… 우리 에이전트기 카즈델 공업지구에서 죽었다.
+    <t xml:space="preserve">[name="외드레르"]  그래, 난 아직 살아있긴 하지만…… 우리 에이전트가 카즈델 공업지구에서 죽었다.
 </t>
   </si>
   <si>
@@ -2516,7 +2516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="외드레르"]  전쟁은 언젠가 다시 일어나겠지만, 우리은 목숨은 하나밖에 없지.
+    <t xml:space="preserve">[name="외드레르"]  전쟁은 언젠가 다시 일어나겠지만, 우리의 목숨은 하나밖에 없지.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_end.xlsx
@@ -1484,7 +1484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ... “Hoederer, Mercenary, 10 candies. Tough squad, 15 candies. We’re acquainted, 20 candies.”
+    <t xml:space="preserve">[name="Hoederer"]  ... 'Hoederer, Mercenary, 10 candies. Tough squad, 15 candies. We’re acquainted, 20 candies.'
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  “W, the old one, taken care of. The new one is a problem. 10 candies, maybe more, situational.”
+    <t xml:space="preserve">[name="Hoederer"]  'W, the old one, taken care of. The new one is a problem. 10 candies, maybe more, situational.'
 </t>
   </si>
   <si>
@@ -1532,7 +1532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Hmm... But lemme get this straight. I’m stronger than that old “W,” huh?
+    <t xml:space="preserve">[name="W"]  Hmm... But lemme get this straight. I’m stronger than that old 'W,' huh?
 </t>
   </si>
   <si>
@@ -1544,7 +1544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  By the way, I’ve been wondering, what kind of person was that old “W?”
+    <t xml:space="preserve">[name="W"]  By the way, I’ve been wondering, what kind of person was that old 'W?'
 </t>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  But, “for sport?”
+    <t xml:space="preserve">[name="Hoederer"]  But, 'for sport?'
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  “W” was one of our biggest characters.
+    <t xml:space="preserve">[name="Hoederer"]  'W' was one of our biggest characters.
 </t>
   </si>
   <si>
@@ -1608,7 +1608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Because he had an “obsession.” Obsessed people, good or bad, are always falling into traps.
+    <t xml:space="preserve">[name="Hoederer"]  Because he had an 'obsession.' Obsessed people, good or bad, are always falling into traps.
 </t>
   </si>
   <si>
@@ -1752,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I guess it’s more “was intercepted by” than “ran into.”
+    <t xml:space="preserve">[name="Hoederer"]  I guess it’s more 'was intercepted by' than 'ran into.'
 </t>
   </si>
   <si>
@@ -1840,7 +1840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  The other mercs are all playing it cool. The “battlefield” changes every day, and you never know when it might swallow up your base camp.
+    <t xml:space="preserve">[name="Ines"]  The other mercs are all playing it cool. The 'battlefield' changes every day, and you never know when it might swallow up your base camp.
 </t>
   </si>
   <si>
@@ -1848,11 +1848,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  She doesn’t hesitate; not when she’s lying, not when she’s killing. She is too “qualified” a mercenary. I can’t tell how deep she is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  I’m not looking for a knife in my back, and I don’t think she’s cut out for this “escort” job. No matter how great you think she is, now’s not the time to send out your greenhorn. 
+    <t xml:space="preserve">[name="Ines"]  She doesn’t hesitate; not when she’s lying, not when she’s killing. She is too 'qualified' a mercenary. I can’t tell how deep she is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  I’m not looking for a knife in my back, and I don’t think she’s cut out for this 'escort' job. No matter how great you think she is, now’s not the time to send out your greenhorn. 
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...“Babel.”
+    <t xml:space="preserve">[name="Hoederer"]  ...'Babel.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_01_end.xlsx
@@ -1344,11 +1344,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4:28 PM \ Cloudy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Military buffer zone between Kazdel’s east/west battlegrounds
+    <t xml:space="preserve">4:28 P.M. \ Cloudy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military buffer zone between Kazdel's east/west battlegrounds
 </t>
   </si>
   <si>
@@ -1368,11 +1368,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">...Too bad for them it’s a little too perfect. Just as planned.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All right, I’ll catch up with you later. The Messenger for Kazdel should be back in a minute.
+    <t xml:space="preserve">...Too bad for them it's a little too perfect. Just as planned.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All right, I'll catch up with you later. The Messenger for Kazdel should be back in a minute.
 </t>
   </si>
   <si>
@@ -1384,7 +1384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  That corpse... that’s the assassin?
+    <t xml:space="preserve">[name="W"]  That corpse... that's the assassin?
 </t>
   </si>
   <si>
@@ -1392,7 +1392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I knew he’d have it on him.
+    <t xml:space="preserve">[name="Hoederer"]  I knew he'd have it on him.
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  We’ve worked together before. Went through hell together. Just a few months ago, we were at the Scar Market, toasting to a job well done.
+    <t xml:space="preserve">[name="Hoederer"]  We've worked together before. Went through hell together. Just a few months ago, we were at the Scar Market, toasting to a job well done.
 </t>
   </si>
   <si>
@@ -1416,7 +1416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  That’s dumb. You’re mercenaries. Sooner or later...
+    <t xml:space="preserve">[name="W"]  That's dumb. You're mercenaries. Sooner or later...
 </t>
   </si>
   <si>
@@ -1424,7 +1424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Hold on, you didn’t really—
+    <t xml:space="preserve">[name="W"]  Hold on, you didn't really—
 </t>
   </si>
   <si>
@@ -1448,11 +1448,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  They’re all names... No, all pseudonyms or code names. And there’s... candy drawn on the back of this? What’s all this supposed to mean?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  The more pieces of candy, the higher the payout. It’s a system only a piece of shit like him could come up with. Whoever gets the most candies is the most dangerous mercenary.
+    <t xml:space="preserve">[name="W"]  They're all names... No, all pseudonyms or code names. And there's... candy drawn on the back of this? What's all this supposed to mean?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  The more pieces of candy, the higher the payout. It's a system only a piece of shit like him could come up with. Whoever gets the most candies is the most dangerous mercenary.
 </t>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  ...But then again, this adds up to a fat stack. Who’s footing the bill?
+    <t xml:space="preserve">[name="W"]  ...But then again, this adds up to a fat stack. Who's footing the bill?
 </t>
   </si>
   <si>
@@ -1472,7 +1472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  This war has driven us to the brink of death, but it’s also left room for us to survive.
+    <t xml:space="preserve">[name="Hoederer"]  This war has driven us to the brink of death, but it's also left room for us to survive.
 </t>
   </si>
   <si>
@@ -1480,15 +1480,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  It’s the rules of the game.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ... 'Hoederer, Mercenary, 10 candies. Tough squad, 15 candies. We’re acquainted, 20 candies.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Can’t fault his accounting.
+    <t xml:space="preserve">[name="Hoederer"]  It's the rules of the game.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ... 'Hoederer, Mercenary, 10 candies. Tough squad, 15 candies. We're acquainted, 20 candies.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Can't fault his accounting.
 </t>
   </si>
   <si>
@@ -1524,27 +1524,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Right? It’s the same idea.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Since this isn’t technically a part of the job, it’s not like us mercenaries have to share every little detail.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Hmm... But lemme get this straight. I’m stronger than that old 'W,' huh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Strong or weak doesn’t tell me shit about a soldier’s actual capabilities. For me, it’s all about whether or not they can follow orders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Fine, fine. I’ll be more thorough next time. Does that work for you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  By the way, I’ve been wondering, what kind of person was that old 'W?'
+    <t xml:space="preserve">[name="W"]  Right? It's the same idea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Since this isn't technically a part of the job, it's not like us mercenaries have to share every little detail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Hmm... But lemme get this straight. I'm stronger than that old 'W,' huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Strong or weak doesn't tell me shit about a soldier's actual capabilities. For me, it's all about whether or not they can follow orders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Fine, fine. I'll be more thorough next time. Does that work for you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  By the way, I've been wondering, what kind of person was that old 'W?'
 </t>
   </si>
   <si>
@@ -1556,7 +1556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  He fought hard to become our team leader, racked up kills and commendations, just so we’d celebrate his birthday.
+    <t xml:space="preserve">[name="Hoederer"]  He fought hard to become our team leader, racked up kills and commendations, just so we'd celebrate his birthday.
 </t>
   </si>
   <si>
@@ -1564,7 +1564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Of course it wasn’t his real birthday... He wasn’t that far gone.
+    <t xml:space="preserve">[name="Hoederer"]  Of course it wasn't his real birthday... He wasn't that far gone.
 </t>
   </si>
   <si>
@@ -1572,11 +1572,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Mhm... A merc who killed Lateranos for sport, huh? Sounds like we could’ve been friends.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  There’s a lot to unpack in there.
+    <t xml:space="preserve">[name="W"]  Mhm... A merc who killed Lateranos for sport, huh? Sounds like we could've been friends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  There's a lot to unpack in there.
 </t>
   </si>
   <si>
@@ -1604,7 +1604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Why’s that?
+    <t xml:space="preserve">[name="W"]  Why's that?
 </t>
   </si>
   <si>
@@ -1616,11 +1616,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I figured you’d get it..
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Because you’re the same type of person. Good at putting on airs, good at living in the moment.
+    <t xml:space="preserve">[name="Hoederer"]  I figured you'd get it..
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Because you're the same type of person. Good at putting on airs, good at living in the moment.
 </t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  What makes you so confident you can guess what I’m thinking? Or, do you have some weird Arts like Ines?
+    <t xml:space="preserve">[name="W"]  What makes you so confident you can guess what I'm thinking? Or, do you have some weird Arts like Ines?
 </t>
   </si>
   <si>
@@ -1640,23 +1640,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You could’ve decided to kill us both that day. I thought you understood that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  *Sigh*... You’re not going to let that go, are you? Reminds me of Ines...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Let’s head back and see how our Messenger’s doing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  It’s about to rain.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That’s the first time I saw her smile. The same smile as W’s.
+    <t xml:space="preserve">[name="W"]  You could've decided to kill us both that day. I thought you understood that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  *Sigh*... You're not going to let that go, are you? Reminds me of Ines...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Let's head back and see how our Messenger's doing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  It's about to rain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's the first time I saw her smile. The same smile as W's.
 </t>
   </si>
   <si>
@@ -1684,7 +1684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Hmph. Can’t imagine we got good news from Kazdel.
+    <t xml:space="preserve">[name="Ines"]  Hmph. Can't imagine we got good news from Kazdel.
 </t>
   </si>
   <si>
@@ -1692,19 +1692,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  I could feel the Messenger’s anxiety after he came back. He tried not to show it, but he was scared out of his mind.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  ...Not to mention your expression. Your poker face couldn’t fool a toddler.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  So, what’s the bad news?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  So, I’m still alive, but... our agent died in Kazdel’s industrial area.
+    <t xml:space="preserve">[name="Ines"]  I could feel the Messenger's anxiety after he came back. He tried not to show it, but he was scared out of his mind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  ...Not to mention your expression. Your poker face couldn't fool a toddler.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  So, what's the bad news?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  So, I'm still alive, but... our agent died in Kazdel's industrial area.
 </t>
   </si>
   <si>
@@ -1720,7 +1720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  But, whoever did it was quick. You have a fight on metal and it’s gonna show for a while—
+    <t xml:space="preserve">[name="Hoederer"]  But, whoever did it was quick. You have a fight on metal and it's gonna show for a while—
 </t>
   </si>
   <si>
@@ -1728,15 +1728,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Whatever. It’s not like we’ll ever catch them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  He wanted to hang out in Kazdel and didn’t like to take orders. And this is what happens. Kinda funny, huh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  But now who’s gonna pay us? I’m not laughing.
+    <t xml:space="preserve">[name="Ines"]  Whatever. It's not like we'll ever catch them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  He wanted to hang out in Kazdel and didn't like to take orders. And this is what happens. Kinda funny, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  But now who's gonna pay us? I'm not laughing.
 </t>
   </si>
   <si>
@@ -1752,19 +1752,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I guess it’s more 'was intercepted by' than 'ran into.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  ...So, we’ve been caught again?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Wouldn’t be the first time. We could take the initiative here...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  By the look of things, we don’t have a choice. The Messenger came back with an order.
+    <t xml:space="preserve">[name="Hoederer"]  I guess it's more 'was intercepted by' than 'ran into.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  ...So, we've been caught again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Wouldn't be the first time. We could take the initiative here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  By the look of things, we don't have a choice. The Messenger came back with an order.
 </t>
   </si>
   <si>
@@ -1776,7 +1776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’ve gone through the options. Just let me finish.
+    <t xml:space="preserve">[name="Hoederer"]  I've gone through the options. Just let me finish.
 </t>
   </si>
   <si>
@@ -1792,7 +1792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...I don’t know.
+    <t xml:space="preserve">[name="Hoederer"]  ...I don't know.
 </t>
   </si>
   <si>
@@ -1800,7 +1800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Really sorry. The situation’s spiraled out of control—
+    <t xml:space="preserve">[name="Hoederer"]  Really sorry. The situation's spiraled out of control—
 </t>
   </si>
   <si>
@@ -1808,7 +1808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Now that we’re responsible for the entire team, the situation has changed. Everyone else is looking for an opening, and we can’t just sit around waiting to die.
+    <t xml:space="preserve">[name="Hoederer"]  Now that we're responsible for the entire team, the situation has changed. Everyone else is looking for an opening, and we can't just sit around waiting to die.
 </t>
   </si>
   <si>
@@ -1820,23 +1820,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  First of all, I won’t go with W.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  She’s made some waves, but I don’t think she’s ready yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  She’s totally proven herself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  I see things you can’t. I trust my Arts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Hoederer’s team shows up with a new demolitions expert, and suddenly the battlefield is one big fiery explosion.
+    <t xml:space="preserve">[name="Ines"]  First of all, I won't go with W.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  She's made some waves, but I don't think she's ready yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  She's totally proven herself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  I see things you can't. I trust my Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Hoederer's team shows up with a new demolitions expert, and suddenly the battlefield is one big fiery explosion.
 </t>
   </si>
   <si>
@@ -1848,11 +1848,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  She doesn’t hesitate; not when she’s lying, not when she’s killing. She is too 'qualified' a mercenary. I can’t tell how deep she is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  I’m not looking for a knife in my back, and I don’t think she’s cut out for this 'escort' job. No matter how great you think she is, now’s not the time to send out your greenhorn. 
+    <t xml:space="preserve">[name="Ines"]  She doesn't hesitate; not when she's lying, not when she's killing. She is too 'qualified' a mercenary. I can't tell how deep she is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  I'm not looking for a knife in my back, and I don't think she's cut out for this 'escort' job. No matter how great you think she is, now's not the time to send out your greenhorn. 
 </t>
   </si>
   <si>
@@ -1860,15 +1860,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’m working with the tools I’ve got.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Look at where we are. We can’t leave people on the sidelines anymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Mercs don’t have a dog in the fight, really. But that also means we don’t belong anywhere. When the dust settles, we’ll fade away, along with the war.
+    <t xml:space="preserve">[name="Hoederer"]  I'm working with the tools I've got.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Look at where we are. We can't leave people on the sidelines anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Mercs don't have a dog in the fight, really. But that also means we don't belong anywhere. When the dust settles, we'll fade away, along with the war.
 </t>
   </si>
   <si>
@@ -1876,11 +1876,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’m not going to be fatalistic about this... and neither should any of you. That’s the deal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  We have to play the hand we’ve been given. Stand out from the crowd, and stake out our own position.
+    <t xml:space="preserve">[name="Hoederer"]  I'm not going to be fatalistic about this... and neither should any of you. That's the deal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  We have to play the hand we've been given. Stand out from the crowd, and stake out our own position.
 </t>
   </si>
   <si>
@@ -1888,15 +1888,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...That group’s here from Rim Billiton. I’m willing to bet they get raided not long after crossing into Kazdel territory.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  A lot of our people won’t take the job. We’ll have to change the teams up a bit, but it doesn’t matter in the end.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  It’s a dangerous contract, but worth the risk. We, or at least you—
+    <t xml:space="preserve">[name="Hoederer"]  ...That group's here from Rim Billiton. I'm willing to bet they get raided not long after crossing into Kazdel territory.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  A lot of our people won't take the job. We'll have to change the teams up a bit, but it doesn't matter in the end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  It's a dangerous contract, but worth the risk. We, or at least you—
 </t>
   </si>
   <si>
@@ -1904,11 +1904,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Not that I question your decision... It’s just that...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  ...Ah, forget it. Anyway, you don’t need to be so uptight. I’ll follow your orders, as always.
+    <t xml:space="preserve">[name="Ines"]  Not that I question your decision... It's just that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  ...Ah, forget it. Anyway, you don't need to be so uptight. I'll follow your orders, as always.
 </t>
   </si>
   <si>
@@ -1924,27 +1924,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I can’t read your eyes. What am I looking for?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Your shadow. It’s trembling.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...It’s windy. And the campfire is flickering.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  You know what I’m talking about. All you Sarkaz are like this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Don’t always try to plan too far ahead. There are too many things you can’t control. We’re just mercenaries, after all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...I’ll keep that in mind.
+    <t xml:space="preserve">[name="Hoederer"]  I can't read your eyes. What am I looking for?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Your shadow. It's trembling.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...It's windy. And the campfire is flickering.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  You know what I'm talking about. All you Sarkaz are like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Don't always try to plan too far ahead. There are too many things you can't control. We're just mercenaries, after all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...I'll keep that in mind.
 </t>
   </si>
   <si>
@@ -1956,15 +1956,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  That’s on a need to know basis. You’re safer this way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  If you can’t trust the other teams, you should at least trust your own.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’m not hiding anything from you, it’s just...
+    <t xml:space="preserve">[name="Hoederer"]  That's on a need to know basis. You're safer this way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  If you can't trust the other teams, you should at least trust your own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  I'm not hiding anything from you, it's just...
 </t>
   </si>
   <si>
